--- a/biology/Histoire de la zoologie et de la botanique/Tikhon_Tchitcherine/Tikhon_Tchitcherine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tikhon_Tchitcherine/Tikhon_Tchitcherine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tikhon Sergueïevitch Tchitcherine (Ти́хон Серге́евич Чиче́рин), né le 11 septembre 1869 à Saint-Pétersbourg et mort le 22 mars 1904, est un aristocrate russe qui fut l'un des fondateurs de la Revue russe d'entomologie. Spécialiste amateur d'entomologie, il s'intéressa particulièrement aux coléoptères et décrivit plus de cinq cents nouveaux taxons. Tikhon Tchitcherine était le neveu du philosophe Boris Tchitcherine et le cousin issu de germain de Gueorgui Tchitcherine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tchitchrine descend d'une famille de l'antique noblesse. Son père, Sergueï Pavlovitch, est officier de la Garde et sa mère, née Alexandra Kerener, est une ancienne actrice dramatique des théâtres impériaux.
 Il publie à l'âge de dix-sept ans son premier article dans Les Travaux de la Société russe d'entomologie sur la description d'un carabe. Le futur naturaliste Andreï Semionov-Tian-Chanski écrit également son premier article dans ce numéro. Les deux jeunes gens sympathisent. Il poursuit ses études à l'École de Droit de Saint-Pétersbourg, et devient ensuite (1889-1892) procureur-assistant dans l'oblast du Daguestan à Temour-Khan-Choura (aujourd'hui Bouïnaksk).
